--- a/10v15/13/MQC-Opener/HARVARD_TUFTS.xlsx
+++ b/10v15/13/MQC-Opener/HARVARD_TUFTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\13\MQC-Opener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A3E9E8-4C76-45D9-BC38-1FC089A13A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFB44F-8C68-45A4-8EB8-89F26D70DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t>A</t>
   </si>
@@ -159,9 +159,6 @@
     <t>JESSE THUE</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -175,6 +172,132 @@
   </si>
   <si>
     <t>RCA</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>0324</t>
+  </si>
+  <si>
+    <t>0417</t>
+  </si>
+  <si>
+    <t>0457</t>
+  </si>
+  <si>
+    <t>0536</t>
+  </si>
+  <si>
+    <t>0550</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>0854</t>
+  </si>
+  <si>
+    <t>0915</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>0948</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1228</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>2205</t>
   </si>
 </sst>
 </file>
@@ -494,10 +617,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,17 +632,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,21 +890,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -794,140 +917,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="29">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="33">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="35" t="str">
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="34" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="36" t="str">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="25" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>120*</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="31"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="29" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="29">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="33">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>6</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="35" t="str">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="34" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="36" t="str">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="25" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>60</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="31"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="27"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -970,37 +1093,51 @@
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1101,42 +1238,58 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1249,44 +1402,62 @@
       <c r="B13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="M13" s="13"/>
       <c r="N13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="18"/>
+      <c r="R13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="S13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1333,12 +1504,14 @@
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="20">
+        <v>14</v>
+      </c>
+      <c r="R14" s="21">
         <v>27</v>
       </c>
-      <c r="R14" s="21"/>
       <c r="S14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1393,44 +1566,62 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="Q16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="18"/>
+      <c r="R16" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="V16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1463,8 +1654,8 @@
       <c r="J17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>41</v>
+      <c r="K17" s="20">
+        <v>26</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="19" t="s">
@@ -1533,46 +1724,62 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J19" s="16"/>
       <c r="K19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="V19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1675,12 +1882,16 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
@@ -1723,10 +1934,10 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="9"/>
@@ -29296,13 +29507,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29312,6 +29516,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29331,7 +29542,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/10v15/13/MQC-Opener/HARVARD_TUFTS.xlsx
+++ b/10v15/13/MQC-Opener/HARVARD_TUFTS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\13\MQC-Opener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFB44F-8C68-45A4-8EB8-89F26D70DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2ECD19-4283-4598-9BCD-21761F1B1197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -314,37 +314,44 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -617,7 +624,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -625,20 +640,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +867,7 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -890,21 +897,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -917,140 +924,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="33">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="34" t="str">
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="25" t="str">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="36" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>120*</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="33" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="33">
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="29">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>6</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="34" t="str">
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="25" t="str">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="36" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>60</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -29507,6 +29514,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29516,13 +29530,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29542,8 +29549,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30047,7 +30054,7 @@
       <c r="A79" s="22">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
